--- a/StructureDefinition-profile-Condition.xlsx
+++ b/StructureDefinition-profile-Condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6548027-06:00</t>
+    <t>2026-02-09T22:05:43.0445108-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,33 +434,60 @@
     <t>Condition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Condition.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.participant|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Condition.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates who or what participated in the activities related to the condition and how they were involved.</t>
+  </si>
+  <si>
+    <t>Element `Condition.participant` is will have a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Condition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Condition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -468,6 +495,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -569,23 +599,16 @@
     <t>Condition.clinicalStatus.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.extension:clinicalStatus</t>
+  </si>
+  <si>
+    <t>clinicalStatus</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.clinicalStatus|0.0.1-snapshot-3}
@@ -595,7 +618,8 @@
     <t>Cross-version extension for Condition.clinicalStatus from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.  clinicalStatus is required since it is a modifier element.  For conditions that are problems list items, the clinicalStatus should not be unknown.  For conditions that are not problem list items, the clinicalStatus may be unknown.  For example, conditions derived from a claim are point in time, so those conditions may have a clinicalStatus of unknown</t>
+    <t>Note that the target element context `Condition.clinicalStatus` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `Condition.clinicalStatus` is mapped to FHIR R4 element `Condition.clinicalStatus`.</t>
   </si>
   <si>
     <t>Condition.clinicalStatus.coding</t>
@@ -1018,6 +1042,9 @@
   </si>
   <si>
     <t>Condition.stage.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1491,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1500,9 +1527,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.5625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.96875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.5625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2516,7 +2543,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2535,17 +2562,15 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>79</v>
@@ -2582,16 +2607,14 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>141</v>
@@ -2618,7 +2641,7 @@
         <v>79</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>79</v>
@@ -2632,11 +2655,13 @@
         <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2649,26 +2674,24 @@
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -2716,7 +2739,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2725,7 +2748,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -2740,7 +2763,7 @@
         <v>79</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>79</v>
@@ -2751,14 +2774,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2771,25 +2794,25 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -2838,7 +2861,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -2850,10 +2873,10 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>79</v>
@@ -2862,10 +2885,10 @@
         <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>79</v>
@@ -2887,13 +2910,13 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>92</v>
@@ -2910,7 +2933,9 @@
       <c r="N12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
@@ -2934,13 +2959,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -2964,28 +2989,28 @@
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>79</v>
@@ -2993,10 +3018,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3013,21 +3038,23 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3052,13 +3079,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3076,7 +3103,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3085,25 +3112,25 @@
         <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>79</v>
@@ -3111,10 +3138,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3122,11 +3149,11 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3137,13 +3164,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3182,31 +3209,31 @@
         <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3218,7 +3245,7 @@
         <v>79</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3229,10 +3256,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3243,7 +3270,7 @@
         <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3255,17 +3282,15 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3302,19 +3327,19 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3349,21 +3374,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3372,23 +3399,21 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3436,7 +3461,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3448,7 +3473,7 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -3457,10 +3482,10 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3471,10 +3496,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3485,7 +3510,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3497,19 +3522,19 @@
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3558,13 +3583,13 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
@@ -3579,10 +3604,10 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -3593,10 +3618,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3613,24 +3638,26 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3654,31 +3681,31 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3687,36 +3714,36 @@
         <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3727,28 +3754,28 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3774,69 +3801,69 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3847,7 +3874,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3859,16 +3886,16 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3894,14 +3921,14 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>229</v>
-      </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
       </c>
@@ -3918,13 +3945,13 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
@@ -3936,31 +3963,31 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AP20" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3976,21 +4003,21 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4014,13 +4041,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4038,7 +4065,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4053,41 +4080,41 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4099,18 +4126,18 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4134,13 +4161,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4158,13 +4185,13 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -4173,41 +4200,41 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AP22" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4219,18 +4246,18 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4254,13 +4281,13 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4278,13 +4305,13 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
@@ -4293,38 +4320,38 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>
@@ -4339,18 +4366,18 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4398,10 +4425,10 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>91</v>
@@ -4413,19 +4440,19 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -4433,10 +4460,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4459,16 +4486,16 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4518,7 +4545,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4533,19 +4560,19 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>79</v>
@@ -4553,10 +4580,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4576,19 +4603,19 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4638,7 +4665,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4647,19 +4674,19 @@
         <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>291</v>
@@ -4696,18 +4723,20 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4765,7 +4794,7 @@
         <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>103</v>
@@ -4777,7 +4806,7 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>298</v>
@@ -4895,13 +4924,13 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -4909,10 +4938,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4935,13 +4964,13 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4992,7 +5021,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5013,13 +5042,13 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>79</v>
@@ -5027,10 +5056,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5041,7 +5070,7 @@
         <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5050,10 +5079,10 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>314</v>
@@ -5110,34 +5139,34 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>317</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>318</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -5145,10 +5174,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5159,7 +5188,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5171,13 +5200,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5228,19 +5257,19 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5252,7 +5281,7 @@
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>176</v>
+        <v>324</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5263,21 +5292,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5289,17 +5318,15 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5348,19 +5375,19 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5372,7 +5399,7 @@
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5383,14 +5410,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>322</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5403,26 +5430,24 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5470,7 +5495,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5494,7 +5519,7 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5505,42 +5530,46 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5564,13 +5593,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5588,31 +5617,31 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5623,10 +5652,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5637,7 +5666,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5649,7 +5678,7 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>335</v>
@@ -5682,13 +5711,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5706,16 +5735,16 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>103</v>
@@ -5724,13 +5753,13 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5741,10 +5770,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5755,7 +5784,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5767,13 +5796,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5800,40 +5829,40 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
@@ -5848,7 +5877,7 @@
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -5859,10 +5888,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5873,7 +5902,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5885,17 +5914,15 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -5920,13 +5947,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -5944,19 +5971,19 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>348</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -5968,7 +5995,7 @@
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -5979,10 +6006,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5993,7 +6020,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6005,15 +6032,17 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>172</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6062,19 +6091,19 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6086,7 +6115,7 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>176</v>
+        <v>357</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6097,21 +6126,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6123,17 +6152,15 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6182,19 +6209,19 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6206,7 +6233,7 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6217,14 +6244,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>322</v>
+        <v>151</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6237,26 +6264,24 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6304,7 +6329,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6328,7 +6353,7 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6339,14 +6364,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6359,22 +6384,26 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6398,13 +6427,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6422,7 +6451,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6431,25 +6460,25 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>79</v>
@@ -6457,10 +6486,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6483,13 +6512,13 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6516,13 +6545,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6540,7 +6569,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6549,25 +6578,25 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>79</v>
@@ -6575,10 +6604,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6598,16 +6627,16 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6658,7 +6687,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6667,27 +6696,145 @@
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AP43" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP44" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Condition.xlsx
+++ b/StructureDefinition-profile-Condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="387">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0445108-06:00</t>
+    <t>2026-02-17T14:42:26.770865-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,7 +474,7 @@
     <t>Indicates who or what participated in the activities related to the condition and how they were involved.</t>
   </si>
   <si>
-    <t>Element `Condition.participant` is will have a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
+    <t>Element `Condition.participant` has a context of Condition based on following the parent source element upwards and mapping to `Condition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -619,7 +619,7 @@
   </si>
   <si>
     <t>Note that the target element context `Condition.clinicalStatus` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Condition.clinicalStatus` is mapped to FHIR R4 element `Condition.clinicalStatus`.</t>
+Element `Condition.clinicalStatus` has is mapped to FHIR R4 element `Condition.clinicalStatus`, but has no comparisons.</t>
   </si>
   <si>
     <t>Condition.clinicalStatus.coding</t>
@@ -1044,10 +1044,23 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Condition.stage.extension:stage</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.stage|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Condition.stage from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A simple summary of the stage such as "Stage 3" or "Early Onset". The determination of the stage is disease-specific, such as cancer, retinopathy of prematurity, kidney diseases, Alzheimer's, or Parkinson disease.</t>
+  </si>
+  <si>
+    <t>Element `Condition.stage` has is mapped to FHIR R4 element `Condition.stage`, but has no comparisons.</t>
   </si>
   <si>
     <t>Condition.stage.modifierExtension</t>
@@ -1146,6 +1159,12 @@
   </si>
   <si>
     <t>Condition.evidence.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Condition.evidence.modifierExtension</t>
@@ -1518,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP44"/>
+  <dimension ref="A1:AP45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5417,7 +5436,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5439,14 +5458,12 @@
         <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5483,16 +5500,14 @@
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>188</v>
@@ -5519,7 +5534,7 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5530,14 +5545,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D34" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5550,26 +5567,24 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5617,7 +5632,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5626,7 +5641,7 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>142</v>
@@ -5641,7 +5656,7 @@
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5652,33 +5667,33 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>335</v>
@@ -5686,8 +5701,12 @@
       <c r="M35" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5711,55 +5730,55 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5770,10 +5789,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5784,7 +5803,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5796,13 +5815,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5829,13 +5848,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -5853,16 +5872,16 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
@@ -5871,13 +5890,13 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -5888,10 +5907,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5902,7 +5921,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5914,7 +5933,7 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>347</v>
@@ -5947,13 +5966,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -5971,16 +5990,16 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -5995,7 +6014,7 @@
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6006,10 +6025,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6020,7 +6039,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6032,17 +6051,15 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6067,13 +6084,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6091,19 +6108,19 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>356</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6115,7 +6132,7 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6126,10 +6143,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6140,7 +6157,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6152,15 +6169,17 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>181</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>182</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6209,19 +6228,19 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>184</v>
+        <v>356</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6233,7 +6252,7 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>185</v>
+        <v>361</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6244,21 +6263,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6270,17 +6289,15 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>327</v>
+        <v>182</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6329,19 +6346,19 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6364,14 +6381,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>330</v>
+        <v>151</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6384,26 +6401,24 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="O41" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6451,7 +6466,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6475,7 +6490,7 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6486,14 +6501,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6506,22 +6521,26 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6545,13 +6564,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6569,7 +6588,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6578,25 +6597,25 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>368</v>
+        <v>134</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>79</v>
@@ -6604,10 +6623,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6630,13 +6649,13 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>371</v>
+        <v>167</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6663,13 +6682,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6687,7 +6706,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6696,25 +6715,25 @@
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -6722,10 +6741,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6745,16 +6764,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6805,7 +6824,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6814,27 +6833,145 @@
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AO44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP44" t="s" s="2">
+      <c r="B45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Condition.xlsx
+++ b/StructureDefinition-profile-Condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.770865-06:00</t>
+    <t>2026-02-20T11:59:20.7655168-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Condition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Condition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -464,7 +464,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.participant|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.participant}
 </t>
   </si>
   <si>
@@ -611,7 +611,7 @@
     <t>clinicalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.clinicalStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.clinicalStatus}
 </t>
   </si>
   <si>
@@ -1050,7 +1050,7 @@
     <t>stage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.stage|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.stage}
 </t>
   </si>
   <si>
@@ -1556,7 +1556,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.83984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.5234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Condition.xlsx
+++ b/StructureDefinition-profile-Condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7655168-06:00</t>
+    <t>2026-02-21T13:36:54.1720383-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Condition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Condition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -464,7 +464,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.participant}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.participant|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -611,7 +611,7 @@
     <t>clinicalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.clinicalStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.clinicalStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -619,7 +619,7 @@
   </si>
   <si>
     <t>Note that the target element context `Condition.clinicalStatus` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Condition.clinicalStatus` has is mapped to FHIR R4 element `Condition.clinicalStatus`, but has no comparisons.</t>
+Element `Condition.clinicalStatus` is mapped to FHIR R4 element `Condition.clinicalStatus` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Condition.clinicalStatus.coding</t>
@@ -1044,23 +1044,10 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
-    <t>Condition.stage.extension:stage</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Condition.stage}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Condition.stage from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A simple summary of the stage such as "Stage 3" or "Early Onset". The determination of the stage is disease-specific, such as cancer, retinopathy of prematurity, kidney diseases, Alzheimer's, or Parkinson disease.</t>
-  </si>
-  <si>
-    <t>Element `Condition.stage` has is mapped to FHIR R4 element `Condition.stage`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Condition.stage.modifierExtension</t>
@@ -1159,12 +1146,6 @@
   </si>
   <si>
     <t>Condition.evidence.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Condition.evidence.modifierExtension</t>
@@ -1537,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP45"/>
+  <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1556,7 +1537,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.5234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.83984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5436,7 +5417,7 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5458,12 +5439,14 @@
         <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5500,14 +5483,16 @@
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC33" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>188</v>
@@ -5534,7 +5519,7 @@
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -5545,16 +5530,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5567,24 +5550,26 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>329</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5632,7 +5617,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5641,7 +5626,7 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>142</v>
@@ -5656,7 +5641,7 @@
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5667,33 +5652,33 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>335</v>
@@ -5701,12 +5686,8 @@
       <c r="M35" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -5730,13 +5711,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -5754,31 +5735,31 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -5789,10 +5770,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5803,7 +5784,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5815,13 +5796,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5848,40 +5829,40 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
@@ -5890,13 +5871,13 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>253</v>
+        <v>345</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -5907,10 +5888,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5921,7 +5902,7 @@
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5933,7 +5914,7 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>347</v>
@@ -5966,13 +5947,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>349</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -5990,16 +5971,16 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -6014,7 +5995,7 @@
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6025,10 +6006,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6039,7 +6020,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6051,15 +6032,17 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6084,13 +6067,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6108,19 +6091,19 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>356</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6132,7 +6115,7 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6143,10 +6126,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6157,7 +6140,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6169,17 +6152,15 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>181</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>182</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6228,19 +6209,19 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>356</v>
+        <v>184</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6252,7 +6233,7 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>361</v>
+        <v>185</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6263,21 +6244,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6289,15 +6270,17 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>182</v>
+        <v>327</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6346,19 +6329,19 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6381,14 +6364,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6401,24 +6384,26 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6466,7 +6451,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6490,7 +6475,7 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6501,14 +6486,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6521,26 +6506,22 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6564,13 +6545,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6588,7 +6569,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6597,25 +6578,25 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>134</v>
+        <v>368</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>79</v>
@@ -6623,10 +6604,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6649,13 +6630,13 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6682,31 +6663,31 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6715,25 +6696,25 @@
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -6741,10 +6722,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6764,16 +6745,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6824,7 +6805,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6833,145 +6814,27 @@
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
